--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BCA903-2F3C-4429-9FB0-47DF04BF87AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FEFF7-F544-445D-83E8-2C344BFA6F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1020" windowWidth="15225" windowHeight="12135" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="165" yWindow="2745" windowWidth="15225" windowHeight="12135" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -372,6 +372,30 @@
   </si>
   <si>
     <t>select all message of groups</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>group2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>message1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>message1.3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>message2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>display message</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4820,6 +4844,397 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92644B89-9A5A-4AC0-85C0-6E26FBE352F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="3752850"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] title1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21CC093A-D002-4A1F-AF00-9C9287602153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="4114800"/>
+          <a:ext cx="1657350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] title1.3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805CB62C-9A35-471D-8397-B66D3A8043F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="3276600"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> message 1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239015E4-31E9-4E43-B488-24C2B288C48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="3990975"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> message 1.3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle with Corners Rounded 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F2E2D0-051D-4C86-8415-C91BDB8E95E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="3095625"/>
+          <a:ext cx="1257300" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29924"/>
+            <a:gd name="adj2" fmla="val 67188"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>selected message</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D28D81-9C5A-4C43-8AF1-7825D4C57297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3324225"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] group</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5119,7 +5534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8974198-09F5-4A4B-B3AB-D2807BA22D2E}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -5885,36 +6300,178 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145D31D-6BF1-4306-92E9-72F0C25D4F4E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235FEFF7-F544-445D-83E8-2C344BFA6F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4163A59-3F26-4A2B-92FB-10F82FA7CD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="2745" windowWidth="15225" windowHeight="12135" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="2820" yWindow="3075" windowWidth="15990" windowHeight="11535" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -398,6 +398,38 @@
     <t>display message</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>new msg</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>add to db</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>display</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,6 +721,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5232,6 +5267,478 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9214921F-3B92-4663-A3FE-C5F49DD03196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="6210300"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] title1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B5DCF6-D186-4CE1-A0D1-F379C5D18007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895725" y="6200775"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> message 1.3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51F574EF-EB04-47C5-AA66-A9D0CDC8D32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="6524625"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] likes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle: Rounded Corners 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96FAB588-0465-4249-B194-CFD288CC6C21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="6877050"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E8A7745-D7A3-4709-9937-927E67006AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="7296150"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AC091B-D659-4C72-B208-E1898C254120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552950" y="6600825"/>
+          <a:ext cx="638175" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2 likes</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26C3E75-5589-415A-8AE8-BE2C863C01B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="7743825"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] title1.3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6300,65 +6807,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145D31D-6BF1-4306-92E9-72F0C25D4F4E}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6368,7 +6875,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6378,7 +6885,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6387,8 +6894,14 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6397,8 +6910,17 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6407,8 +6929,17 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6418,7 +6949,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6428,7 +6959,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6438,7 +6969,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6448,7 +6979,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6458,7 +6989,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6468,6 +6999,119 @@
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
     </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4163A59-3F26-4A2B-92FB-10F82FA7CD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D2079-A1E7-44E4-A66F-D1CB69153A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="3075" windowWidth="15990" windowHeight="11535" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="7455" yWindow="1950" windowWidth="18495" windowHeight="12510" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="chat" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -430,6 +431,66 @@
     <t>like</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>type: "title"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: "msg text"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>path: "xxx/yyy"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;userID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>uint64</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user1,user2, …</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>update db</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ID: &lt;titleID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type: &lt;like/unlike&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title: &lt;user name&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>likes: &lt;user list&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +785,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6041,7 +6105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8974198-09F5-4A4B-B3AB-D2807BA22D2E}">
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -6807,65 +6871,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145D31D-6BF1-4306-92E9-72F0C25D4F4E}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -6874,8 +6998,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6885,7 +7012,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -6894,14 +7021,14 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="K16" t="s">
+      <c r="K16" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -6917,10 +7044,13 @@
         <v>52</v>
       </c>
       <c r="M17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -6929,17 +7059,11 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="K18" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" t="s">
-        <v>54</v>
-      </c>
       <c r="M18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -6948,8 +7072,11 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -6958,8 +7085,20 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -6968,8 +7107,11 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6978,8 +7120,11 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -6988,8 +7133,11 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -6998,8 +7146,11 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="9"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -7011,8 +7162,20 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -7021,8 +7184,11 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7031,8 +7197,11 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -7041,8 +7210,11 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -7052,7 +7224,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -7062,7 +7234,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -7071,8 +7243,20 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -7081,8 +7265,11 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -7091,8 +7278,11 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -7101,8 +7291,11 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="M35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -7111,6 +7304,14 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
+      <c r="M36" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M37" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7118,4 +7319,17 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9D2079-A1E7-44E4-A66F-D1CB69153A39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3A5ED-4BD1-4C32-B1C0-ACA386CE2A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1950" windowWidth="18495" windowHeight="12510" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="8820" yWindow="1470" windowWidth="18495" windowHeight="12510" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,15 +444,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>content: &lt;userID&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>title object</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>uint64</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -476,10 +468,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ID: &lt;titleID&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>type: &lt;like/unlike&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -491,12 +479,24 @@
     <t>likes: &lt;user list&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>zID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;user.zID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zID: &lt;title.zID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +537,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -717,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +797,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6103,6 +6121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8974198-09F5-4A4B-B3AB-D2807BA22D2E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -6871,10 +6890,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C145D31D-6BF1-4306-92E9-72F0C25D4F4E}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6889,7 +6909,7 @@
         <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
@@ -6897,10 +6917,10 @@
         <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -6911,7 +6931,7 @@
         <v>9</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
@@ -6919,7 +6939,7 @@
         <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
@@ -6930,7 +6950,7 @@
         <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
@@ -6941,21 +6961,21 @@
         <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="M8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="M8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
@@ -6968,7 +6988,7 @@
         <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
@@ -6999,7 +7019,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
@@ -7092,7 +7112,7 @@
         <v>54</v>
       </c>
       <c r="M20" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="P20" t="s">
         <v>51</v>
@@ -7169,10 +7189,10 @@
         <v>52</v>
       </c>
       <c r="M26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
@@ -7185,7 +7205,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
       <c r="M27" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
@@ -7198,7 +7218,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
       <c r="M28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
@@ -7250,7 +7270,7 @@
         <v>54</v>
       </c>
       <c r="M32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="P32" t="s">
         <v>51</v>
@@ -7266,7 +7286,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="6"/>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.4">
@@ -7279,7 +7299,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="6"/>
       <c r="M34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.4">
@@ -7304,13 +7324,13 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="9"/>
-      <c r="M36" s="16" t="s">
-        <v>70</v>
+      <c r="M36" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M37" s="16" t="s">
-        <v>71</v>
+      <c r="M37" s="24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7323,6 +7343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C3A5ED-4BD1-4C32-B1C0-ACA386CE2A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDE4BA-8892-47DE-9D16-58DCCC24919D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="1470" windowWidth="18495" windowHeight="12510" activeTab="1" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="chat" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="program" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -491,12 +491,593 @@
     <t>zID: &lt;title.zID&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>select all programs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user 1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>user 2</t>
+  </si>
+  <si>
+    <t>user 3</t>
+  </si>
+  <si>
+    <t>NB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HQ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>thành viên</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nhóm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>đăng ký</t>
+  </si>
+  <si>
+    <r>
+      <t>nghe tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nghe vào ngày khác</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a đăng ký</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng kê</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>chi ti</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>report program: h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c pháp m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng 8</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>program object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"program"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>"h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c pháp th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng kì/tháng 12/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng 8"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>"4 th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ứ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khó đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ợ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ở</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>"m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng 8"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type: "program"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type: "register"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;user.zID&gt;&lt;option&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>programID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;option&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>content: "m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng 8"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1. nghe tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ự</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c ti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ế</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>2. nghe vào th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ờ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i gian khác</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>format</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2 yyyy mm dd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>add/update</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>add new program -admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,6 +1120,27 @@
       <charset val="163"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +1150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +1178,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,13 +1413,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5824,6 +6453,1203 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C821600E-D00D-43C5-B668-4E2B90A6DC9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="4029075"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] mồng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{614FF446-BFFF-4C7C-82DF-2C4FE2A82851}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="7381875"/>
+          <a:ext cx="1657350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ]  mười</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> năm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5CD3EA-D095-493B-93EB-8851CA25EDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="3276600"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> họ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>c pháp mồng 8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A62F98-4603-47DD-84B7-EE8B085ED1B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933824" y="3924300"/>
+          <a:ext cx="1647825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nghe trực</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> tiếp  (15/89)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94FD455-5943-4BA5-A51A-EB1745BE5C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3324225"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] học</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> pháp thường kỳ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA80E23-3C93-43D9-A833-71BC558D6CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="5114925"/>
+          <a:ext cx="1533525" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4A095C4-0F58-494F-B975-9C894ED18618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="3676650"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] tháng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32EB553-D598-4701-A31B-7FA10949C9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="4391025"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] 1. nghe trực</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> tiếp</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82BB2BC5-8285-4322-9C70-4FFF237AC743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="5838825"/>
+          <a:ext cx="2114550" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] 2. nghe vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> thời gian khác</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle with Corners Rounded 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57519769-1630-40F9-86F4-738F89A9940F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="3495675"/>
+          <a:ext cx="904875" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29924"/>
+            <a:gd name="adj2" fmla="val 67188"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>selected item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle: Rounded Corners 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7C5DA01-7DEE-4C55-82A9-6CF7D44A6B3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666874" y="4752976"/>
+          <a:ext cx="1552575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle: Rounded Corners 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011CE8F7-D10B-459F-B61E-88E1B9768591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628774" y="6200776"/>
+          <a:ext cx="1552575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user1 2020-12-30</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle: Rounded Corners 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4535BB6E-C096-4717-AF8B-D833E1CD5CB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="6553200"/>
+          <a:ext cx="1533525" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user2 2020-12-31</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle: Rounded Corners 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25AFEB9-BCBD-4A97-8464-CF7BB193F447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933823" y="4371975"/>
+          <a:ext cx="2095502" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nghe vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> thời gian khác (39/89)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle: Rounded Corners 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD9B66E-0CED-4954-83F4-705B465D4A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="4533901"/>
+          <a:ext cx="333375" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>👍</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle: Rounded Corners 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19E7793-D330-454B-9A61-32E71E529AA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2562224" y="2943225"/>
+          <a:ext cx="504825" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle with Corners Rounded 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B7E54DF-B25E-4D3E-A9C5-254B6590F6AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="7067550"/>
+          <a:ext cx="1152525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29924"/>
+            <a:gd name="adj2" fmla="val 67188"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2 yyyy mm dd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6124,8 +7950,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6893,8 +8719,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7344,13 +9170,563 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C4" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C7" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M12" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="K15" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P15" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="K16" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="K17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="K20" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+      <c r="K25" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="K26" t="s">
+        <v>51</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="s">
+        <v>64</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="T26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+      <c r="K27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" t="s">
+        <v>102</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+      <c r="M28" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
+      <c r="M29" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
+      <c r="K32" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+      <c r="M34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M35" s="23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="M36" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDE4BA-8892-47DE-9D16-58DCCC24919D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2F8CC-FC5C-4EE1-B598-25113EEECD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="8265" yWindow="2325" windowWidth="20160" windowHeight="11445" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -927,27 +927,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>content: &lt;user.zID&gt;&lt;option&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>register</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>programID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>userID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>register object</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;option&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1065,11 +1049,58 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>add/update</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>add new program -admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>type: &lt;register&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>title: &lt;user name&gt; &lt;option&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zID: &lt;program.zID&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"addProgReg"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;user.zID&gt;&lt;option idx&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;user.zID&gt; &lt;option idx&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>opt object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;prog.zID&gt;_opt&lt;zerobase_idx&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;user.zID&gt;&lt;option idx&gt;</t>
+  </si>
+  <si>
+    <t>1. nghe truc tiep</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"r1"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>"user 1"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>prog_opt</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1340,7 +1371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1435,6 +1466,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6721,11 +6755,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>nghe trực</a:t>
+            <a:t>nghe theo nhóm</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> tiếp  (15/89)</a:t>
+            <a:t>  (15/89)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -7006,11 +7040,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[ + ] 1. nghe trực</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> tiếp</a:t>
+            <a:t>[ + ] 1. nghe theo nhóm</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -9170,20 +9200,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>72</v>
       </c>
@@ -9192,7 +9222,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -9203,7 +9233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C4" s="27" t="s">
         <v>84</v>
       </c>
@@ -9223,7 +9253,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>2</v>
       </c>
@@ -9240,7 +9270,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>0</v>
       </c>
@@ -9257,7 +9287,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C7" s="27" t="s">
         <v>85</v>
       </c>
@@ -9271,7 +9301,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>78</v>
       </c>
@@ -9285,7 +9315,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -9295,8 +9325,16 @@
       <c r="E9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="P9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>74</v>
       </c>
@@ -9306,12 +9344,20 @@
       <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="M10" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>75</v>
       </c>
@@ -9321,33 +9367,45 @@
       <c r="E11" t="s">
         <v>83</v>
       </c>
-      <c r="M11" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="M13" t="s">
+      <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9356,8 +9414,20 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="P14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -9366,14 +9436,8 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -9382,14 +9446,6 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="4"/>
@@ -9400,19 +9456,11 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30" t="s">
-        <v>53</v>
+      <c r="K17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
@@ -9424,11 +9472,11 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="6"/>
-      <c r="K18" s="30"/>
+      <c r="K18" s="30" t="s">
+        <v>102</v>
+      </c>
       <c r="L18" s="30"/>
-      <c r="M18" s="30" t="s">
-        <v>100</v>
-      </c>
+      <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
@@ -9442,14 +9490,20 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
+      <c r="K19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="M19" s="30" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="N19" s="30"/>
       <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
+      <c r="P19" s="30" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="4"/>
@@ -9460,20 +9514,14 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
-      <c r="K20" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="30" t="s">
-        <v>54</v>
-      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
       <c r="M20" s="30" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N20" s="30"/>
       <c r="O20" s="30"/>
-      <c r="P20" s="30" t="s">
-        <v>51</v>
-      </c>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="4"/>
@@ -9487,7 +9535,7 @@
       <c r="K21" s="30"/>
       <c r="L21" s="30"/>
       <c r="M21" s="30" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="N21" s="30"/>
       <c r="O21" s="30"/>
@@ -9502,14 +9550,20 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="6"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="K22" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>54</v>
+      </c>
       <c r="M22" s="30" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="N22" s="30"/>
       <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
+      <c r="P22" s="30" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="4"/>
@@ -9523,7 +9577,7 @@
       <c r="K23" s="30"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
@@ -9541,7 +9595,7 @@
       <c r="K24" s="30"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N24" s="30"/>
       <c r="O24" s="30"/>
@@ -9556,9 +9610,14 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="6"/>
-      <c r="K25" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="4"/>
@@ -9569,24 +9628,14 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="6"/>
-      <c r="K26" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" t="s">
-        <v>64</v>
-      </c>
-      <c r="R26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="T26" t="s">
-        <v>104</v>
-      </c>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="4"/>
@@ -9597,17 +9646,8 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
-      <c r="K27" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="K27" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="R27" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27">
-        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
@@ -9619,14 +9659,23 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="6"/>
+      <c r="K28" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="M28" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" t="s">
-        <v>103</v>
+        <v>93</v>
+      </c>
+      <c r="P28" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="T28" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
@@ -9638,8 +9687,17 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
-      <c r="M29" s="23" t="s">
-        <v>59</v>
+      <c r="K29" t="s">
+        <v>106</v>
+      </c>
+      <c r="M29" t="s">
+        <v>107</v>
+      </c>
+      <c r="R29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.4">
@@ -9651,6 +9709,15 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
+      <c r="M30" t="s">
+        <v>105</v>
+      </c>
+      <c r="R30" t="s">
+        <v>99</v>
+      </c>
+      <c r="T30" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B31" s="4"/>
@@ -9661,6 +9728,9 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
+      <c r="M31" s="23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B32" s="4"/>
@@ -9669,24 +9739,12 @@
       <c r="E32" s="6"/>
       <c r="F32" s="4"/>
       <c r="G32" s="29" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
-      <c r="K32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -9697,11 +9755,8 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
-      <c r="M33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -9710,23 +9765,43 @@
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="9"/>
+      <c r="K34" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="M34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M35" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="P34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="M35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="M36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="M37" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="M36" s="25" t="s">
-        <v>67</v>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="M38" s="25" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2F8CC-FC5C-4EE1-B598-25113EEECD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AE482-9D46-495D-B6FE-42A75B99F56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="2325" windowWidth="20160" windowHeight="11445" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="11790" yWindow="3315" windowWidth="16710" windowHeight="11430" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -1057,26 +1057,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>title: &lt;user name&gt; &lt;option&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>zID: &lt;program.zID&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>"addProgReg"</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>content: &lt;user.zID&gt;&lt;option idx&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>content: &lt;user.zID&gt; &lt;option idx&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>opt object</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1101,6 +1085,22 @@
   </si>
   <si>
     <t>prog_opt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;program.zID&gt;&lt;user.zID&gt;&lt;option idx&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zID: &lt;reg.zID/none&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>content: &lt;program.zID&gt; &lt;user.zID&gt; &lt;option idx&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>zID: &lt;reg.zID&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -9200,10 +9200,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9326,7 +9326,7 @@
         <v>81</v>
       </c>
       <c r="K9" s="32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L9" s="32"/>
       <c r="P9" s="28" t="s">
@@ -9348,13 +9348,13 @@
         <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -9371,7 +9371,7 @@
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
         <v>38</v>
@@ -9385,13 +9385,13 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P12" t="s">
         <v>9</v>
       </c>
       <c r="Q12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -9402,7 +9402,7 @@
         <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -9418,7 +9418,7 @@
         <v>16</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P14" t="s">
         <v>16</v>
@@ -9688,10 +9688,10 @@
       <c r="H29" s="5"/>
       <c r="I29" s="6"/>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R29" t="s">
         <v>98</v>
@@ -9710,7 +9710,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
       <c r="M30" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="R30" t="s">
         <v>99</v>
@@ -9780,22 +9780,17 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="M35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="M36" t="s">
-        <v>105</v>
+      <c r="M36" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="M37" s="23" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="M38" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220AE482-9D46-495D-B6FE-42A75B99F56D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6AF39-8C70-4EAD-A77D-2EB4BEB55678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11790" yWindow="3315" windowWidth="16710" windowHeight="11430" activeTab="2" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="7230" yWindow="2475" windowWidth="17415" windowHeight="12690" activeTab="3" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="chat" sheetId="2" r:id="rId2"/>
     <sheet name="program" sheetId="3" r:id="rId3"/>
+    <sheet name="obj" sheetId="4" r:id="rId4"/>
+    <sheet name="guide" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -1103,12 +1105,253 @@
     <t>zID: &lt;reg.zID&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>treeNode</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>childs</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lect</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lect obj</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tree nodes dict</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ư</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ớ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ẫ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>n đăng ký ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng trình tu h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Thay đ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ổ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>Ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ọ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>ươ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ng trình</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Đăng ký theo các option</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>paragraph object</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>program</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dang ky</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1422,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1371,7 +1621,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,6 +1719,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7680,6 +7933,1199 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle: Rounded Corners 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2393425-A0AF-42C3-9D91-26294407B9FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="4029075"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] mồng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F2C31E-06CA-4EE9-85CE-4020793C3FB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="6905625"/>
+          <a:ext cx="1657350" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ]  mười</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> năm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70AD8F72-E6ED-4399-ACDF-9C76B83632E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648075" y="3276600"/>
+          <a:ext cx="1352550" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> họ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>c pháp mồng 8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49723A4B-ED75-473E-81F0-C6675C036B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933824" y="3924300"/>
+          <a:ext cx="1647825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nghe theo nhóm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>  (15/89)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267C43E1-DEDE-49D9-BB90-0EF7F7FB837C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="3324225"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] học</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> pháp thường kỳ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB6DBD98-C228-47FB-A38A-C7A24B1DCC5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666875" y="5114925"/>
+          <a:ext cx="1533525" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle: Rounded Corners 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D0D827-E518-4167-98BB-14B564916E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="3676650"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] tháng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> 12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle: Rounded Corners 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEFE7FA3-F39B-41A0-943B-4610A14D8F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="4391025"/>
+          <a:ext cx="1847850" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] 1. nghe theo nhóm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B72F7F-29A6-4F0D-8514-6F475BA5C6B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="5838825"/>
+          <a:ext cx="2114550" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] 2. nghe vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> thời gian khác</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle with Corners Rounded 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62759740-38D4-408B-9335-F7B55DE44361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="3495675"/>
+          <a:ext cx="904875" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29924"/>
+            <a:gd name="adj2" fmla="val 67188"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>selected item</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E3E7AD4-6982-4178-9335-A9127B6D8D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1666874" y="4752976"/>
+          <a:ext cx="1552575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F685391A-3B81-4BE5-8C8B-58A3821BFF1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628774" y="6200776"/>
+          <a:ext cx="1552575" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user1 2020-12-30</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72871268-F531-47F2-8D71-CA1F68AAC5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="6553200"/>
+          <a:ext cx="1533525" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>[ + ] user2 2020-12-31</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C27D873-859B-476F-BF35-26E4EA183444}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933823" y="4371975"/>
+          <a:ext cx="2095502" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>nghe vào</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> thời gian khác (39/89)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle: Rounded Corners 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42AC8AD-3BD9-401E-90E0-4CDFACE91210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="4533901"/>
+          <a:ext cx="333375" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>👍</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EFB799-F5E6-40B4-A5A4-66C13E1FECDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629274" y="7705725"/>
+          <a:ext cx="504825" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>send</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle with Corners Rounded 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABCDBDC-807E-4ECE-A0D8-3624555162BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="7067550"/>
+          <a:ext cx="1152525" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29924"/>
+            <a:gd name="adj2" fmla="val 67188"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2 yyyy mm dd</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7980,7 +9426,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13:E14"/>
     </sheetView>
   </sheetViews>
@@ -8749,7 +10195,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -9200,20 +10646,20 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48B14B7-59B7-48A8-B8DC-EECE67438311}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>72</v>
       </c>
@@ -9222,7 +10668,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -9233,7 +10679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C4" s="27" t="s">
         <v>84</v>
       </c>
@@ -9253,7 +10699,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D5">
         <v>2</v>
       </c>
@@ -9270,7 +10716,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
       <c r="D6">
         <v>0</v>
       </c>
@@ -9287,7 +10733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C7" s="27" t="s">
         <v>85</v>
       </c>
@@ -9301,7 +10747,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>78</v>
       </c>
@@ -9315,7 +10761,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -9333,8 +10779,12 @@
         <v>95</v>
       </c>
       <c r="Q9" s="28"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="U9" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="V9" s="33"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
         <v>74</v>
       </c>
@@ -9357,7 +10807,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>75</v>
       </c>
@@ -9377,7 +10827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -9394,7 +10844,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
       <c r="K13" t="s">
         <v>38</v>
       </c>
@@ -9405,7 +10855,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9427,7 +10877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -9437,7 +10887,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -9799,4 +11249,398 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7191462-FA4D-4254-8D05-A9B35F657697}">
+  <dimension ref="B2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CAFBE88-8F77-4FE3-8DE8-A3CCAC0C8689}">
+  <dimension ref="A2:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="16">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/WebAppChat.xlsx
+++ b/WebAppChat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\chatApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B6AF39-8C70-4EAD-A77D-2EB4BEB55678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B398C672-81F4-4D5C-BD7A-8FB2F0A2D0C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="2475" windowWidth="17415" windowHeight="12690" activeTab="3" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
+    <workbookView xWindow="705" yWindow="4020" windowWidth="14325" windowHeight="10965" activeTab="5" xr2:uid="{6456D250-3D17-463E-985F-D203F4A2C4A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="program" sheetId="3" r:id="rId3"/>
     <sheet name="obj" sheetId="4" r:id="rId4"/>
     <sheet name="guide" sheetId="5" r:id="rId5"/>
+    <sheet name="cv" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="154">
   <si>
     <t>menu</t>
     <phoneticPr fontId="2"/>
@@ -146,7 +147,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -169,7 +170,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -206,7 +207,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -229,7 +230,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -252,7 +253,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -281,7 +282,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -304,7 +305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -544,7 +545,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -565,7 +566,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -596,7 +597,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -625,7 +626,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -654,7 +655,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -681,7 +682,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -702,7 +703,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -737,7 +738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -814,7 +815,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -911,7 +912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -954,7 +955,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -985,7 +986,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1006,7 +1007,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1033,7 +1034,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1247,7 +1248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1274,7 +1275,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1301,7 +1302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <charset val="128"/>
         <scheme val="minor"/>
@@ -1346,16 +1347,85 @@
     <t>dang ky</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>1. hàng ngày bàn luận cv</t>
+  </si>
+  <si>
+    <t>bình luận thêm vào đuôi</t>
+  </si>
+  <si>
+    <t>chưa xong thì chuyển sang ngày khác</t>
+  </si>
+  <si>
+    <t>ngày 10/7</t>
+  </si>
+  <si>
+    <t>ban LĐ</t>
+  </si>
+  <si>
+    <t>ban NL</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>trao đổi đề xuất cv1</t>
+  </si>
+  <si>
+    <t>ý kiến trao đổi</t>
+  </si>
+  <si>
+    <t>màu xanh - mới</t>
+  </si>
+  <si>
+    <t>màu vàng - có ý kiến bình luận</t>
+  </si>
+  <si>
+    <t>màu gray - xong</t>
+  </si>
+  <si>
+    <t>bình luận</t>
+  </si>
+  <si>
+    <t>chức năng</t>
+  </si>
+  <si>
+    <t>chọn công việc/ý kiến</t>
+  </si>
+  <si>
+    <t>nhập bình luận</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>chốt cv</t>
+  </si>
+  <si>
+    <t>chọn công việc</t>
+  </si>
+  <si>
+    <t>chốt</t>
+  </si>
+  <si>
+    <t>undo?</t>
+  </si>
+  <si>
+    <t>chưa xong</t>
+  </si>
+  <si>
+    <t>công việc chưa chốt tự động move sang ngày sau - tránh bị trùng lặp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1364,14 +1434,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1380,7 +1450,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1418,7 +1488,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1431,7 +1501,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1471,6 +1541,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1621,7 +1697,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1724,6 +1800,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1811,7 +1890,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1936,7 +2015,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2017,7 +2096,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="vi-VN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2142,7 +2221,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
+      <a:endParaRPr lang="vi-VN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9430,12 +9509,12 @@
       <selection activeCell="C13" sqref="C13:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15">
       <c r="A1" s="21" t="s">
         <v>24</v>
       </c>
@@ -9456,7 +9535,7 @@
       <c r="P1" s="20"/>
       <c r="Q1" s="20"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9467,7 +9546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17">
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -9478,7 +9557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
@@ -9487,7 +9566,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17">
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
@@ -9496,7 +9575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
@@ -9508,7 +9587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
@@ -9517,7 +9596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
@@ -9526,7 +9605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
@@ -9535,7 +9614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
@@ -9544,7 +9623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
@@ -9553,7 +9632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
@@ -9565,7 +9644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17">
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -9576,13 +9655,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="21" t="s">
         <v>23</v>
       </c>
@@ -9603,12 +9682,12 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17">
       <c r="I17" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" ht="15">
       <c r="B18" s="12" t="s">
         <v>0</v>
       </c>
@@ -9624,7 +9703,7 @@
       </c>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -9641,7 +9720,7 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -9655,7 +9734,7 @@
       </c>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -9669,7 +9748,7 @@
       </c>
       <c r="L21" s="10"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -9683,7 +9762,7 @@
       </c>
       <c r="L22" s="10"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -9699,7 +9778,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17">
       <c r="B24" s="4"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -9709,49 +9788,49 @@
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" ht="15">
       <c r="A32" s="19" t="s">
         <v>22</v>
       </c>
@@ -9772,7 +9851,7 @@
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" ht="15">
       <c r="B33" s="11" t="s">
         <v>0</v>
       </c>
@@ -9787,7 +9866,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="5"/>
@@ -9803,7 +9882,7 @@
       </c>
       <c r="L34" s="10"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="5">
@@ -9818,7 +9897,7 @@
       </c>
       <c r="L35" s="10"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="5">
@@ -9835,7 +9914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -9848,43 +9927,43 @@
       </c>
       <c r="L37" s="10"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="5"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17">
       <c r="B44" s="4"/>
       <c r="C44" s="1" t="s">
         <v>4</v>
@@ -9892,13 +9971,13 @@
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" ht="15">
       <c r="A48" s="19" t="s">
         <v>25</v>
       </c>
@@ -9919,7 +9998,7 @@
       <c r="P48" s="20"/>
       <c r="Q48" s="20"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5">
       <c r="B49" s="11" t="s">
         <v>0</v>
       </c>
@@ -9927,67 +10006,67 @@
       <c r="D49" s="2"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:5">
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:5">
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5">
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5">
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:5">
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:5">
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5">
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:5">
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:5">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
         <v>17</v>
@@ -9995,7 +10074,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5">
       <c r="B61" s="4"/>
       <c r="C61" s="5" t="s">
         <v>18</v>
@@ -10003,25 +10082,25 @@
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:5">
       <c r="B62" s="4"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5">
       <c r="B63" s="4"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" ht="15">
       <c r="A66" s="19" t="s">
         <v>26</v>
       </c>
@@ -10042,7 +10121,7 @@
       <c r="P66" s="20"/>
       <c r="Q66" s="20"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" ht="15">
       <c r="B67" s="11" t="s">
         <v>0</v>
       </c>
@@ -10057,7 +10136,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="5"/>
@@ -10073,7 +10152,7 @@
       </c>
       <c r="L68" s="10"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="5">
@@ -10088,7 +10167,7 @@
       </c>
       <c r="L69" s="10"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="5">
@@ -10103,7 +10182,7 @@
       </c>
       <c r="L70" s="10"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
@@ -10116,7 +10195,7 @@
       </c>
       <c r="L71" s="10"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
@@ -10129,7 +10208,7 @@
       </c>
       <c r="L72" s="10"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
@@ -10144,31 +10223,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
       <c r="E75" s="6"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="6"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="6"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17">
       <c r="B78" s="4"/>
       <c r="C78" s="1" t="s">
         <v>27</v>
@@ -10176,7 +10255,7 @@
       <c r="D78" s="2"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17">
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="8"/>
@@ -10195,18 +10274,18 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -10214,7 +10293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -10225,7 +10304,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16">
       <c r="B4" t="s">
         <v>42</v>
       </c>
@@ -10236,7 +10315,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16">
       <c r="M5" t="s">
         <v>38</v>
       </c>
@@ -10244,7 +10323,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16">
       <c r="C6" t="s">
         <v>43</v>
       </c>
@@ -10255,7 +10334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -10266,7 +10345,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>45</v>
       </c>
@@ -10280,12 +10359,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16">
       <c r="F9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16">
       <c r="E10" t="s">
         <v>47</v>
       </c>
@@ -10293,12 +10372,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16">
       <c r="M11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10306,12 +10385,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16">
       <c r="M13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10324,7 +10403,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -10334,7 +10413,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -10350,7 +10429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10372,7 +10451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10385,7 +10464,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -10398,7 +10477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10420,7 +10499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -10433,7 +10512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -10446,7 +10525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -10459,7 +10538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -10472,7 +10551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -10497,7 +10576,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -10510,7 +10589,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -10523,7 +10602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -10536,7 +10615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -10546,7 +10625,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -10556,7 +10635,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -10578,7 +10657,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -10591,7 +10670,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -10604,7 +10683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -10617,7 +10696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -10630,7 +10709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13">
       <c r="M37" s="24" t="s">
         <v>68</v>
       </c>
@@ -10648,18 +10727,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:V14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" ht="15">
       <c r="B2" t="s">
         <v>72</v>
       </c>
@@ -10668,7 +10747,7 @@
       </c>
       <c r="N2" s="28"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" ht="15">
       <c r="B3" t="s">
         <v>86</v>
       </c>
@@ -10679,7 +10758,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" ht="15">
       <c r="C4" s="27" t="s">
         <v>84</v>
       </c>
@@ -10699,7 +10778,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" ht="18.75">
       <c r="D5">
         <v>2</v>
       </c>
@@ -10716,7 +10795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" ht="18.75">
       <c r="D6">
         <v>0</v>
       </c>
@@ -10733,7 +10812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" ht="15">
       <c r="C7" s="27" t="s">
         <v>85</v>
       </c>
@@ -10747,7 +10826,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22">
       <c r="C8" t="s">
         <v>78</v>
       </c>
@@ -10761,7 +10840,7 @@
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" ht="15">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -10784,7 +10863,7 @@
       </c>
       <c r="V9" s="33"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22">
       <c r="C10" t="s">
         <v>74</v>
       </c>
@@ -10807,7 +10886,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" ht="16.5">
       <c r="C11" t="s">
         <v>75</v>
       </c>
@@ -10827,7 +10906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -10844,7 +10923,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22">
       <c r="K13" t="s">
         <v>38</v>
       </c>
@@ -10855,7 +10934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22">
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10877,7 +10956,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -10887,7 +10966,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22">
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -10897,7 +10976,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20">
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10913,7 +10992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:20">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -10931,7 +11010,7 @@
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:20">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -10955,7 +11034,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:20" ht="15">
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -10973,7 +11052,7 @@
       <c r="O20" s="30"/>
       <c r="P20" s="30"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:20">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -10991,7 +11070,7 @@
       <c r="O21" s="30"/>
       <c r="P21" s="30"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:20">
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -11015,7 +11094,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:20">
       <c r="B23" s="4"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -11033,7 +11112,7 @@
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:20">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -11051,7 +11130,7 @@
       <c r="O24" s="30"/>
       <c r="P24" s="30"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:20">
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -11069,7 +11148,7 @@
       <c r="O25" s="30"/>
       <c r="P25" s="30"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:20">
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -11087,7 +11166,7 @@
       <c r="O26" s="30"/>
       <c r="P26" s="30"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:20">
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -11100,7 +11179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:20">
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -11128,7 +11207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:20" ht="15">
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -11150,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:20" ht="15">
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -11169,7 +11248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20">
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -11182,7 +11261,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20">
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -11194,7 +11273,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:16">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -11206,7 +11285,7 @@
       <c r="H33" s="2"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:16">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -11228,17 +11307,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:16">
       <c r="M35" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:16">
       <c r="M36" s="16" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16">
       <c r="M37" s="23" t="s">
         <v>59</v>
       </c>
@@ -11255,29 +11334,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7191462-FA4D-4254-8D05-A9B35F657697}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3">
       <c r="B2" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -11285,7 +11364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -11293,13 +11372,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3">
       <c r="B9" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="16"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3">
       <c r="B10" t="s">
         <v>130</v>
       </c>
@@ -11318,9 +11397,9 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="18.75">
       <c r="B2" s="16" t="s">
         <v>122</v>
       </c>
@@ -11333,7 +11412,7 @@
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>1</v>
       </c>
@@ -11341,7 +11420,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -11349,7 +11428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -11357,7 +11436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10">
       <c r="B7" s="16">
         <v>1</v>
       </c>
@@ -11372,7 +11451,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="18.75">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23" t="s">
@@ -11386,7 +11465,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23" t="s">
@@ -11400,7 +11479,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -11412,7 +11491,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10">
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
@@ -11424,7 +11503,7 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10">
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -11434,7 +11513,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10">
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -11444,7 +11523,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10">
       <c r="C14" s="4"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -11454,7 +11533,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10">
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -11464,7 +11543,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10">
       <c r="C16" s="4"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -11474,7 +11553,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:10">
       <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -11484,7 +11563,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:10">
       <c r="C18" s="4"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -11494,7 +11573,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:10">
       <c r="C19" s="4"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -11504,7 +11583,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:10">
       <c r="C20" s="4"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -11514,7 +11593,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:10">
       <c r="C21" s="4"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -11524,7 +11603,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:10">
       <c r="C22" s="7"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -11534,7 +11613,7 @@
       <c r="I22" s="8"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:10">
       <c r="C23" s="4"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -11544,7 +11623,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:10">
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -11554,7 +11633,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:10">
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -11564,7 +11643,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:10">
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -11574,7 +11653,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:10">
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -11584,7 +11663,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:10">
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -11594,7 +11673,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:10">
       <c r="C29" s="4"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -11604,7 +11683,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:10">
       <c r="C30" s="4"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -11616,7 +11695,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:10">
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -11628,7 +11707,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:10">
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -11643,4 +11722,155 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67854DBE-1B91-445F-A244-59B9D0B0579A}">
+  <dimension ref="A2:I26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="C22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="C24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>